--- a/biology/Botanique/Olea_capensis_subsp._capensis/Olea_capensis_subsp._capensis.xlsx
+++ b/biology/Botanique/Olea_capensis_subsp._capensis/Olea_capensis_subsp._capensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olea capensis subsp. capensis est une sous-espèce de l'espèce Olea capensis laquelle appartient à la famille des Oleaceae. On l'appelle le bois de fer noir. C'est le bois le plus lourd connu[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olea capensis subsp. capensis est une sous-espèce de l'espèce Olea capensis laquelle appartient à la famille des Oleaceae. On l'appelle le bois de fer noir. C'est le bois le plus lourd connu.
 On trouve ces oliviers en Afrique australe, Afrique de l'Est, Afrique inter-tropicale du golfe de Guinée, Archipel des Comores (Grande Comores, Mohéli, Anjouan, Mayotte) et Madagascar.
 </t>
         </is>
@@ -514,15 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spécimen type
-Le type de la sous-espèce (subsp.) capensis a été décrit par Inez Clare Verdoorn avec les références suivantes : « Bothalia 6 : 582 (1956) &amp; in Dyer et al., Fl. Southern Afr. 26 : 117 (1963) ; Palmer &amp; Pitman, Trees Southern Afr. : 1827 (1972) ; Palgrave, Trees Southern Afr. : 759 (1977). »[2]
-Appareil végétatif
-Port : ce sont des buissons ou de petits arbres, de 1 à 10 m de haut.
-Feuilles : elles sont très variables, habituellement elliptiques-oblongues à largement elliptiques, parfois lancéolées à étroitement lancéolées, ou un peu obovales à subcirculaires, (1,6 -)3,5 à 6,5( -11,5) cm de long, (0,6 -)1,5 à 2,5(- 5,5) cm de large, pétioles (2 -)3 à 10(- 13) mm de long, l'apex est aigu à largement obtus ou arrondi, parfois subacuminé, mucronulé. La nervure centrale est apparente sur toute la longueur de la feuille.
-Appareil reproducteur
-La description est celle de l'espèce type O. capensis L., sauf pour le fruit.
-Fleurs : blanches ou crème et délicatement odorantes, petites et abondamment axillaires ou en inflorescences terminales, plante bisexuée, 3 à 15 cm de long.
-Fruit : ce sont des drupes ellipsoïdesà globuleuses, de 7 à 9 par 6 à 8 mm.</t>
+          <t>Spécimen type</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le type de la sous-espèce (subsp.) capensis a été décrit par Inez Clare Verdoorn avec les références suivantes : « Bothalia 6 : 582 (1956) &amp; in Dyer et al., Fl. Southern Afr. 26 : 117 (1963) ; Palmer &amp; Pitman, Trees Southern Afr. : 1827 (1972) ; Palgrave, Trees Southern Afr. : 759 (1977). »
+</t>
         </is>
       </c>
     </row>
@@ -547,10 +558,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Port : ce sont des buissons ou de petits arbres, de 1 à 10 m de haut.
+Feuilles : elles sont très variables, habituellement elliptiques-oblongues à largement elliptiques, parfois lancéolées à étroitement lancéolées, ou un peu obovales à subcirculaires, (1,6 -)3,5 à 6,5( -11,5) cm de long, (0,6 -)1,5 à 2,5(- 5,5) cm de large, pétioles (2 -)3 à 10(- 13) mm de long, l'apex est aigu à largement obtus ou arrondi, parfois subacuminé, mucronulé. La nervure centrale est apparente sur toute la longueur de la feuille.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olea_capensis_subsp._capensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_capensis_subsp._capensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La description est celle de l'espèce type O. capensis L., sauf pour le fruit.
+Fleurs : blanches ou crème et délicatement odorantes, petites et abondamment axillaires ou en inflorescences terminales, plante bisexuée, 3 à 15 cm de long.
+Fruit : ce sont des drupes ellipsoïdesà globuleuses, de 7 à 9 par 6 à 8 mm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olea_capensis_subsp._capensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_capensis_subsp._capensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Synonymes [3]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Olea buxifolia Mill., Gard. Dict. ed. 8, Olea No. 5 (1768).
 O. capensis var. coriacea Aiton, Hort. Kew.  1 : 13 (1789). Type non tracé.
@@ -565,68 +653,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Olea_capensis_subsp._capensis</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Olea_capensis_subsp._capensis</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un bois précieux[1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Olea_capensis_subsp._capensis</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Olea_capensis_subsp._capensis</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olea capensis subsp. capensis est un végétal à « distribution côtière ou près de la côte, tout au  long des parties sud des provinces du Cap ouest et est, à l’exception d’une discontinuité dans les districts de "Mossel Bay", Riversdale et Swellendam. Cela a été noté, dans le district de Clanwilliam, au nord-est de la Ville du Cap (Pillans 8716, fide Verdoorn 1956) mais je n’ai pas vu [P.S. Green] ces collections, pas plus que de Ceres. »[4]
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -648,10 +674,78 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un bois précieux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olea_capensis_subsp._capensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_capensis_subsp._capensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olea capensis subsp. capensis est un végétal à « distribution côtière ou près de la côte, tout au  long des parties sud des provinces du Cap ouest et est, à l’exception d’une discontinuité dans les districts de "Mossel Bay", Riversdale et Swellendam. Cela a été noté, dans le district de Clanwilliam, au nord-est de la Ville du Cap (Pillans 8716, fide Verdoorn 1956) mais je n’ai pas vu [P.S. Green] ces collections, pas plus que de Ceres. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Olea_capensis_subsp._capensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_capensis_subsp._capensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
